--- a/Param.xlsx
+++ b/Param.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1468A-917D-4C5B-97F2-329C4477D17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ADBECF-0174-4156-92A5-6E87FA80F302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32790" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{9DEEAB0B-D86B-4A93-9B99-F30BBFEF50BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{9DEEAB0B-D86B-4A93-9B99-F30BBFEF50BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>PDW</t>
   </si>
@@ -64,6 +65,12 @@
   </si>
   <si>
     <t>Original</t>
+  </si>
+  <si>
+    <t>P_DW</t>
+  </si>
+  <si>
+    <t>P_WW</t>
   </si>
 </sst>
 </file>
@@ -128,6 +135,2501 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.37931377858800602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36261706109835701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25301044237014197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30863162569062802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34381481384798901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37169872103620499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31474906698147598</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43065860750524099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48803436336804101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48943238560621499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51578566362843503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38876075512872599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AB2-4C70-8CF7-5BBF67E30F01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.41061166948877598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36398307523045997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.484736448492459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43101682287642401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39581715859915301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61526085912333295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36050405429281701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52813317125499104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33956711386196903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44439947480462599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68242084780122503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.620947026064122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AB2-4C70-8CF7-5BBF67E30F01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.38081202459604302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36365294547310101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25339664992094302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30991029650386598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.351832106242777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37567709686184902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.317655287590841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.433023716857043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47587486540669199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49789420654148397</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51511952225008095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39019848756770997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AB2-4C70-8CF7-5BBF67E30F01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.374254052182105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36082391253537799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25062171141162598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30481973655244798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33794385284110001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.367283409835856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31326895420573297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42777224096516903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.484179902436773</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48287813476549502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51459635844541196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38912930661324602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9AB2-4C70-8CF7-5BBF67E30F01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.38350578235788702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36813591450001998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25181896887645899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30698882274795097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.352249359063872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37912890348589401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.320329286663459</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.43373659313596302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47576094645483102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50075773176712901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51916171316723903</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38893265692412898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9AB2-4C70-8CF7-5BBF67E30F01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$2:$AC$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.38836862999182098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36783661923965899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25078440713481898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30406429913321298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34897704439549798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37831382017699899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.320986831212563</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.432273872807168</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47384348547726901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50082253657948295</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51734576586546799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.388101658112252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9AB2-4C70-8CF7-5BBF67E30F01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="973668223"/>
+        <c:axId val="973668639"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="973668223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973668639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="973668639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973668223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.58728781463245E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3681764227666198E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4197273610095398E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2982326668253398E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9210456676542803E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3839423232491005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0543007648536503E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3780910910447394E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7854780313007207E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.59179939282937E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2744489854828703E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4817605022355401E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A82-40C2-97FD-D189B383B820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.147724340539197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17478468944569001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33809963825834199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9748379520451497E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7442338786529193E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8393512040439803E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40583610261701902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9821747001244201E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26813207203143302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34339754905035502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35756296673135002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16929502847644001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6A82-40C2-97FD-D189B383B820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.5144438216653399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3798938545086203E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3373463576837799E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3097885568395097E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7043066991399903E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8993534158257602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5189393208286799E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5009068431846199E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0435450533980898E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3620235338260694E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4457648481047897E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2247591325617002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6A82-40C2-97FD-D189B383B820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.3313597423349601E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8952602063983698E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9541519751946001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.96814873363514E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.77466986222624E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4867130027804407E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3346256543820197E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7908216543288503E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7144048921429694E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.21167626564256E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6928158100210897E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0925406657641302E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6A82-40C2-97FD-D189B383B820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.1817064164349001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5702439037050001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4435029486522398E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2975862028923201E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7207045024467801E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1642215290704301E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.31636298572688E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5331017927740402E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1217464244222706E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0062245346010699E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4950109364725598E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5505373892016097E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6A82-40C2-97FD-D189B383B820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$2:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.8313860373383801E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7156968140952301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.57241168089674E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1462279052035499E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.54027669429508E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5203497683280001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5774924350671098E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3501002800481201E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9301112224746997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7372769289829602E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3238543935720102E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.4608799195001403E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6A82-40C2-97FD-D189B383B820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="394944703"/>
+        <c:axId val="394946367"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="394944703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394946367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="394946367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394944703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F71FCAD7-DE2F-4164-B8B2-E79507EC3D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A0E2FB-ACC9-4CAE-9797-03A5324BABBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,13 +2931,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B02CAA4-988E-4874-AD3F-97CDE6B472FA}">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -454,9 +2956,7 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -524,7 +3024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2">
         <v>0.24168126094570899</v>
@@ -606,7 +3106,7 @@
         <v>3.8313860373383801E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>0.22709163346613501</v>
@@ -686,7 +3186,7 @@
         <v>5.7156968140952301E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>0.20782608695652199</v>
@@ -766,7 +3266,7 @@
         <v>3.57241168089674E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>0.20768526989936001</v>
@@ -846,7 +3346,7 @@
         <v>4.1462279052035499E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>0.26035502958579898</v>
@@ -926,7 +3426,7 @@
         <v>5.54027669429508E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>0.31353919239904998</v>
@@ -1006,7 +3506,7 @@
         <v>6.5203497683280001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>0.346964064436183</v>
@@ -1086,7 +3586,7 @@
         <v>4.5774924350671098E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9">
         <v>0.35272277227722798</v>
@@ -1166,7 +3666,7 @@
         <v>5.3501002800481201E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>0.341890315052509</v>
@@ -1246,7 +3746,7 @@
         <v>6.9301112224746997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>0.290091930541369</v>
@@ -1326,7 +3826,7 @@
         <v>5.7372769289829602E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>0.29184549356223199</v>
@@ -1406,7 +3906,7 @@
         <v>7.3238543935720102E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>0.26524953789279099</v>
@@ -1488,14 +3988,317 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Z2:Z13"/>
     <mergeCell ref="A1:A13"/>
     <mergeCell ref="F1:F13"/>
     <mergeCell ref="K1:K13"/>
     <mergeCell ref="P1:P13"/>
     <mergeCell ref="U1:U13"/>
-    <mergeCell ref="Z2:Z13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4956391B-8855-4249-9602-5D9CC68E57ED}">
+  <dimension ref="B3:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0.21934945788156801</v>
+      </c>
+      <c r="C4">
+        <v>0.50932835820895495</v>
+      </c>
+      <c r="E4">
+        <v>0.24168126094570899</v>
+      </c>
+      <c r="F4">
+        <v>0.53456998313659398</v>
+      </c>
+      <c r="H4">
+        <f>E4-B4</f>
+        <v>2.2331803064140981E-2</v>
+      </c>
+      <c r="I4">
+        <f>F4-C4</f>
+        <v>2.5241624927639039E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0.211775878442545</v>
+      </c>
+      <c r="C5">
+        <v>0.57575757575757602</v>
+      </c>
+      <c r="E5">
+        <v>0.22709163346613501</v>
+      </c>
+      <c r="F5">
+        <v>0.60311958405545896</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H15" si="0">E5-B5</f>
+        <v>1.5315755023590005E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I15" si="1">F5-C5</f>
+        <v>2.7362008297882934E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>0.195688225538972</v>
+      </c>
+      <c r="C6">
+        <v>0.52409638554216897</v>
+      </c>
+      <c r="E6">
+        <v>0.20782608695652199</v>
+      </c>
+      <c r="F6">
+        <v>0.56678700361010803</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.2137861417549994E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>4.2690618067939057E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0.19480519480519501</v>
+      </c>
+      <c r="C7">
+        <v>0.54655870445344101</v>
+      </c>
+      <c r="E7">
+        <v>0.20768526989936001</v>
+      </c>
+      <c r="F7">
+        <v>0.59352517985611497</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.2880075094165E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>4.6966475402673957E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0.23588342440801499</v>
+      </c>
+      <c r="C8">
+        <v>0.57260726072607304</v>
+      </c>
+      <c r="E8">
+        <v>0.26035502958579898</v>
+      </c>
+      <c r="F8">
+        <v>0.61739130434782596</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.4471605177783989E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.4784043621752923E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>0.295728368017525</v>
+      </c>
+      <c r="C9">
+        <v>0.63315217391304301</v>
+      </c>
+      <c r="E9">
+        <v>0.31353919239904998</v>
+      </c>
+      <c r="F9">
+        <v>0.67286245353159801</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.7810824381524981E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>3.9710279618555E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0.319148936170213</v>
+      </c>
+      <c r="C10">
+        <v>0.66109785202864002</v>
+      </c>
+      <c r="E10">
+        <v>0.346964064436183</v>
+      </c>
+      <c r="F10">
+        <v>0.69805194805194803</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2.7815128265969991E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>3.6954096023308014E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0.33144796380090502</v>
+      </c>
+      <c r="C11">
+        <v>0.65569917743830797</v>
+      </c>
+      <c r="E11">
+        <v>0.35272277227722798</v>
+      </c>
+      <c r="F11">
+        <v>0.692556634304207</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2.1274808476322959E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>3.685745686589903E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>0.31670281995661598</v>
+      </c>
+      <c r="C12">
+        <v>0.61426684280052801</v>
+      </c>
+      <c r="E12">
+        <v>0.341890315052509</v>
+      </c>
+      <c r="F12">
+        <v>0.64355231143552305</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.518749509589302E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2.9285468634995038E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0.27793974732750198</v>
+      </c>
+      <c r="C13">
+        <v>0.59348441926345596</v>
+      </c>
+      <c r="E13">
+        <v>0.290091930541369</v>
+      </c>
+      <c r="F13">
+        <v>0.62301587301587302</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>1.2152183213867018E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2.9531453752417058E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0.27263479145473002</v>
+      </c>
+      <c r="C14">
+        <v>0.61494252873563204</v>
+      </c>
+      <c r="E14">
+        <v>0.29184549356223199</v>
+      </c>
+      <c r="F14">
+        <v>0.63587684069611805</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.9210702107501976E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2.0934311960486007E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0.245166959578207</v>
+      </c>
+      <c r="C15">
+        <v>0.53266331658291499</v>
+      </c>
+      <c r="E15">
+        <v>0.26524953789279099</v>
+      </c>
+      <c r="F15">
+        <v>0.56202143950995398</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2.0082578314583988E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>2.9358122927038988E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Param.xlsx
+++ b/Param.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ADBECF-0174-4156-92A5-6E87FA80F302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD72660-F994-4584-B571-586E2CB2EB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{9DEEAB0B-D86B-4A93-9B99-F30BBFEF50BC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DEEAB0B-D86B-4A93-9B99-F30BBFEF50BC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="OptParameter" sheetId="1" r:id="rId1"/>
+    <sheet name="ThresholdParameter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
   <si>
     <t>PDW</t>
   </si>
@@ -72,12 +72,24 @@
   <si>
     <t>P_WW</t>
   </si>
+  <si>
+    <t>Trial 6</t>
+  </si>
+  <si>
+    <t>Trial 7</t>
+  </si>
+  <si>
+    <t>Trial 8</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +105,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,12 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,6 +177,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Alpha</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -190,10 +240,13 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Original</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="57150" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -204,7 +257,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$13</c:f>
+              <c:f>OptParameter!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -255,13 +308,17 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Trial 2</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -271,74 +328,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.41061166948877598</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36398307523045997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.484736448492459</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.43101682287642401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.39581715859915301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61526085912333295</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36050405429281701</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.52813317125499104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.33956711386196903</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.44439947480462599</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.68242084780122503</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.620947026064122</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9AB2-4C70-8CF7-5BBF67E30F01}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$2:$N$13</c:f>
+              <c:f>OptParameter!$N$2:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -390,12 +380,16 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Trial 3</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -405,7 +399,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$2:$S$13</c:f>
+              <c:f>OptParameter!$S$2:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -457,12 +451,16 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Trial 4</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -472,7 +470,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$2:$X$13</c:f>
+              <c:f>OptParameter!$X$2:$X$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -524,12 +522,16 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Trial 5</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -539,7 +541,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$2:$AC$13</c:f>
+              <c:f>OptParameter!$AC$2:$AC$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -586,6 +588,77 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-9AB2-4C70-8CF7-5BBF67E30F01}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Trial 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$AH$2:$AH$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.36305847574925698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36224767690374998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.241841017844734</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.313298199042854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34129848601507301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36023190552137702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.306514898668172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42394323368952602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48112032719494202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.485065604328415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.503027947283332</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39228831347941001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3DF-4565-9C8E-9701079C66B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -805,6 +878,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Beta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -843,10 +941,13 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Original</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="57150" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -857,7 +958,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$13</c:f>
+              <c:f>OptParameter!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -908,13 +1009,17 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Trial 2</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -924,74 +1029,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.147724340539197</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17478468944569001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33809963825834199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9748379520451497E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7442338786529193E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.8393512040439803E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40583610261701902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.9821747001244201E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26813207203143302</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.34339754905035502</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.35756296673135002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16929502847644001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A82-40C2-97FD-D189B383B820}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$2:$O$13</c:f>
+              <c:f>OptParameter!$O$2:$O$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1043,12 +1081,16 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Trial 3</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1058,7 +1100,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$2:$T$13</c:f>
+              <c:f>OptParameter!$T$2:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1110,12 +1152,16 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Trial 4</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1125,7 +1171,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$2:$Y$13</c:f>
+              <c:f>OptParameter!$Y$2:$Y$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1177,12 +1223,16 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Trial 5</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1192,7 +1242,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AD$2:$AD$13</c:f>
+              <c:f>OptParameter!$AD$2:$AD$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1239,6 +1289,77 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-6A82-40C2-97FD-D189B383B820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Trial 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$AI$2:$AI$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.9176412988209503E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6748668620562497E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0822817579690399E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0632766423404298E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2418335681788303E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5838680977223602E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6591359882603699E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9678122910917598E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0764204830528903E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7829322510667103E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.73479207487795E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3593107101662896E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B95E-447C-83EC-3F2EF0781198}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1443,6 +1564,2240 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PDW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Original</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.24168126094570899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22709163346613501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20782608695652199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20768526989936001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26035502958579898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31353919239904998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.346964064436183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35272277227722798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.341890315052509</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.290091930541369</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29184549356223199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26524953789279099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF7C-4D63-8B00-9A667B5D20B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Trial 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$L$2:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.241808332352828</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22691776439675901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20712201416600601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20833103303609601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26053707067141102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31398349804940701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34654572922925098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35239219491990798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34131418680596698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.289422063121963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29161852976810099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26478682400579201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF7C-4D63-8B00-9A667B5D20B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Trial 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$Q$2:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.24187804398988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.226766557986044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20776234256350001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20755920101825701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.260201420020228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31317259564176197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34636150191276999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35240989977772702</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34198521998519799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29019541128057003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.291853812607279</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26512019135128001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF7C-4D63-8B00-9A667B5D20B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Trial 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$V$2:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.24211515854416699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.226941000730352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20732876149113499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.208680495282701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26020500497494498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31411905827416597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34666295707452499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35272185600038802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.341276274701731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28957466733279602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29165072111464702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26498633548613598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EF7C-4D63-8B00-9A667B5D20B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Trial 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$AA$2:$AA$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.242507630767858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22674236078989499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20758385427193299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.208736427859607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26000886576083598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31434605722811099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34656863896517798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35263588505413102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34113774712086398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28964453815616997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29148187368460499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26487964657509599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EF7C-4D63-8B00-9A667B5D20B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Trial 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$AF$2:$AF$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.241854518298183</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.226633310739312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20726776297070601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20795910541496601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26115704652405403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31295657565782797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34574941664735098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35268436256707503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34161275751536602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28990963179819301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29101601768857999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26596068412849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EF7C-4D63-8B00-9A667B5D20B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1075176400"/>
+        <c:axId val="1075178480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1075176400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075178480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1075178480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075176400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PWW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Original</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="57150" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53456998313659398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60311958405545896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56678700361010803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59352517985611497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61739130434782596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67286245353159801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69805194805194803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.692556634304207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64355231143552305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62301587301587302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63587684069611805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56202143950995398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FE0-4D1E-A945-3FE002F608AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Trial 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$M$2:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53441047312844303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60289622424787104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56719651702830998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59311818136622896</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61739863362038205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67225848298457802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.699167683099432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69241073169897105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64292067429038202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62226797278920198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63594739860420102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56239203758835399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FE0-4D1E-A945-3FE002F608AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Trial 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$R$2:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53459329959180901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60331453834389903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56711392319534204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59366528357491699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61747928147882103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67323273502300796</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69835992118011803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69300627526792902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64393735560045295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.622647574098256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63601475115648098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56209261840678304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FE0-4D1E-A945-3FE002F608AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Trial 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$W$2:$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53448871194084602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60289064187650199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56702236800438099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59293185143264404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61760541325282403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.672417681872713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69915139129145099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.692472306502111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64279883086384404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62256180774244896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63587902775017102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56245517842070403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0FE0-4D1E-A945-3FE002F608AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Trial 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$AB$2:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53494860638146102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60289318709740103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56672105077809598</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59328032812944798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61775228698412998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67219972476771805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69933690184435704</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69239182268428201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64266619281673598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62225123243796299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63601034440170101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56246245064453004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0FE0-4D1E-A945-3FE002F608AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Trial 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>OptParameter!$AG$2:$AG$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53495368749376004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60168805168281603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56730263978245798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59348562701613505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61814899237957799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67196816603171405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69843372022733896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.692651407501785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64470991518096599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62289009704392895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63662822331286595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56232728826024503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0FE0-4D1E-A945-3FE002F608AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1075187216"/>
+        <c:axId val="1075184720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1075187216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075184720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1075184720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075187216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PDW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Threshold = 0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ThresholdParameter!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.21934945788156801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.211775878442545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.195688225538972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19480519480519501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23588342440801499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.295728368017525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.319148936170213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33144796380090502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31670281995661598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27793974732750198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27263479145473002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.245166959578207</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48C8-4A35-86E4-E0EBF6F2549A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Threshold = 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ThresholdParameter!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.24168126094570899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22709163346613501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20782608695652199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20768526989936001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26035502958579898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31353919239904998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.346964064436183</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35272277227722798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.341890315052509</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.290091930541369</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29184549356223199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26524953789279099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48C8-4A35-86E4-E0EBF6F2549A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1064873936"/>
+        <c:axId val="1064878096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1064873936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064878096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1064878096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1064873936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>PWW</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Threshold = 0.1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ThresholdParameter!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.50932835820895495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57575757575757602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52409638554216897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54655870445344101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57260726072607304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63315217391304301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66109785202864002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65569917743830797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61426684280052801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59348441926345596</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61494252873563204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53266331658291499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6529-41B0-9FCC-F82A3AD0B6F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Threshold = 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ThresholdParameter!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.53456998313659398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60311958405545896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56678700361010803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59352517985611497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61739130434782596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67286245353159801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69805194805194803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.692556634304207</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64355231143552305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62301587301587302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63587684069611805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56202143950995398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6529-41B0-9FCC-F82A3AD0B6F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1075207600"/>
+        <c:axId val="1075206768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1075207600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075206768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1075206768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075207600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1523,6 +3878,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2555,20 +5070,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2596,15 +7175,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>117475</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2612,6 +7191,553 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A0E2FB-ACC9-4CAE-9797-03A5324BABBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4C5397-6C86-4851-9DD9-71BC987D3313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{378ECF2D-3612-460B-A288-991CDACB0352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Content Placeholder 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{815D7B66-7682-4C5C-BB0D-00A3B25C9B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noGrp="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12172950" y="2657475"/>
+          <a:ext cx="10515600" cy="6915150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0">
+          <a:normAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="228600" indent="-228600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1000"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="2800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="685800" indent="-228600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="500"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="2400" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1143000" indent="-228600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="500"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="2000" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1600200" indent="-228600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="500"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2057400" indent="-228600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="500"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2514600" indent="-228600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="500"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2971800" indent="-228600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="500"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3429000" indent="-228600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="500"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3886200" indent="-228600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="500"/>
+            </a:spcBef>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Trial 1: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lowerBound=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>rep(0,48); </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>upperBound=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>rep(0.99,48)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Trial 2: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lowerBound[1:24]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>0; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>lowerBound[25:48]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>1e-10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="1371600" lvl="3" indent="0">
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>upperBound[1:24]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800"/>
+            <a:t>=1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>; upperBound[25:48]=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800"/>
+            <a:t>Inf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Trial 3: Boundaries same as Trial 2, SSE=SSE*100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800"/>
+            <a:t>Trial 4: Boundar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>ies same as Trial 2, initial parameters taken from trial 2, SSE=SSE*100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Trial 5: Boundaries same as Trial 2, initial parameters taken from trial 4, SSE=SSE*100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800"/>
+            <a:t>Trial 6: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Boundaries same as Trial 2, initial parameters taken from trial 2, SSE=SSE*100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Trial 7: Boundaries same as Trial 2, initial parameters taken from trial 6 , SSE=SSE</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Trial</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 8: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="2800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Boundaries same as Trial 2, initial parameters taken from trial 7, SSE=SSE</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="2800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="1371600" lvl="3" indent="0">
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E93C9D-61F4-4D6D-84CA-75F3DC85CED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C5C5F3-D0D5-45A0-B6D7-2F78D0C83F27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,15 +8055,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B02CAA4-988E-4874-AD3F-97CDE6B472FA}">
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AS23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3023,8 +8149,44 @@
       <c r="AD1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2">
         <v>0.24168126094570899</v>
@@ -3105,8 +8267,47 @@
       <c r="AD2">
         <v>3.8313860373383801E-2</v>
       </c>
+      <c r="AE2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2">
+        <v>0.241854518298183</v>
+      </c>
+      <c r="AG2">
+        <v>0.53495368749376004</v>
+      </c>
+      <c r="AH2">
+        <v>0.36305847574925698</v>
+      </c>
+      <c r="AI2">
+        <v>4.9176412988209503E-2</v>
+      </c>
+      <c r="AK2">
+        <v>0.275511735114571</v>
+      </c>
+      <c r="AL2">
+        <v>0.80327482405199002</v>
+      </c>
+      <c r="AM2">
+        <v>9.1845499696302006</v>
+      </c>
+      <c r="AN2">
+        <v>1.6931654278733499</v>
+      </c>
+      <c r="AP2">
+        <v>0.26954889960221301</v>
+      </c>
+      <c r="AQ2">
+        <v>0.79386166654405999</v>
+      </c>
+      <c r="AR2">
+        <v>9.1101775949078299</v>
+      </c>
+      <c r="AS2">
+        <v>1.6592711749359501</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3">
         <v>0.22709163346613501</v>
@@ -3185,8 +8386,45 @@
       <c r="AD3">
         <v>5.7156968140952301E-2</v>
       </c>
+      <c r="AE3" s="2"/>
+      <c r="AF3">
+        <v>0.226633310739312</v>
+      </c>
+      <c r="AG3">
+        <v>0.60168805168281603</v>
+      </c>
+      <c r="AH3">
+        <v>0.36224767690374998</v>
+      </c>
+      <c r="AI3">
+        <v>4.6748668620562497E-2</v>
+      </c>
+      <c r="AK3">
+        <v>0.75091206373584496</v>
+      </c>
+      <c r="AL3">
+        <v>0.85606042536934002</v>
+      </c>
+      <c r="AM3">
+        <v>5.2027755681709804</v>
+      </c>
+      <c r="AN3">
+        <v>9.3857850861045797</v>
+      </c>
+      <c r="AP3">
+        <v>0.76108121370769899</v>
+      </c>
+      <c r="AQ3">
+        <v>0.85907981037328696</v>
+      </c>
+      <c r="AR3">
+        <v>5.2866167767827799</v>
+      </c>
+      <c r="AS3">
+        <v>9.1598817121336094</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4">
         <v>0.20782608695652199</v>
@@ -3265,8 +8503,45 @@
       <c r="AD4">
         <v>3.57241168089674E-2</v>
       </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4">
+        <v>0.20726776297070601</v>
+      </c>
+      <c r="AG4">
+        <v>0.56730263978245798</v>
+      </c>
+      <c r="AH4">
+        <v>0.241841017844734</v>
+      </c>
+      <c r="AI4">
+        <v>3.0822817579690399E-2</v>
+      </c>
+      <c r="AK4">
+        <v>0.31098799378770198</v>
+      </c>
+      <c r="AL4">
+        <v>0.36279401889323498</v>
+      </c>
+      <c r="AM4">
+        <v>1.2869874446296501</v>
+      </c>
+      <c r="AN4">
+        <v>8.4911992524093307</v>
+      </c>
+      <c r="AP4">
+        <v>0.30807148464925699</v>
+      </c>
+      <c r="AQ4">
+        <v>0.368965350733439</v>
+      </c>
+      <c r="AR4">
+        <v>1.2560606732567301</v>
+      </c>
+      <c r="AS4">
+        <v>8.3539123545060097</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>0.20768526989936001</v>
@@ -3345,8 +8620,45 @@
       <c r="AD5">
         <v>4.1462279052035499E-2</v>
       </c>
+      <c r="AE5" s="2"/>
+      <c r="AF5">
+        <v>0.20795910541496601</v>
+      </c>
+      <c r="AG5">
+        <v>0.59348562701613505</v>
+      </c>
+      <c r="AH5">
+        <v>0.313298199042854</v>
+      </c>
+      <c r="AI5">
+        <v>4.0632766423404298E-2</v>
+      </c>
+      <c r="AK5">
+        <v>0.45508246385596601</v>
+      </c>
+      <c r="AL5">
+        <v>0.36009221549974602</v>
+      </c>
+      <c r="AM5">
+        <v>5.8151156607168897</v>
+      </c>
+      <c r="AN5">
+        <v>8.1630790939237503</v>
+      </c>
+      <c r="AP5">
+        <v>0.450841282538467</v>
+      </c>
+      <c r="AQ5">
+        <v>0.35422212300215</v>
+      </c>
+      <c r="AR5">
+        <v>6.01154269112733</v>
+      </c>
+      <c r="AS5">
+        <v>7.9400320262143698</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6">
         <v>0.26035502958579898</v>
@@ -3425,8 +8737,45 @@
       <c r="AD6">
         <v>5.54027669429508E-2</v>
       </c>
+      <c r="AE6" s="2"/>
+      <c r="AF6">
+        <v>0.26115704652405403</v>
+      </c>
+      <c r="AG6">
+        <v>0.61814899237957799</v>
+      </c>
+      <c r="AH6">
+        <v>0.34129848601507301</v>
+      </c>
+      <c r="AI6">
+        <v>5.2418335681788303E-2</v>
+      </c>
+      <c r="AK6">
+        <v>0.46109214603527698</v>
+      </c>
+      <c r="AL6">
+        <v>0.53059701947090998</v>
+      </c>
+      <c r="AM6">
+        <v>2.2191808414299699</v>
+      </c>
+      <c r="AN6">
+        <v>0.46208405185351997</v>
+      </c>
+      <c r="AP6">
+        <v>0.46359374414925397</v>
+      </c>
+      <c r="AQ6">
+        <v>0.52284283171500801</v>
+      </c>
+      <c r="AR6">
+        <v>2.1924083257199301</v>
+      </c>
+      <c r="AS6">
+        <v>0.48684214241310297</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7">
         <v>0.31353919239904998</v>
@@ -3505,8 +8854,45 @@
       <c r="AD7">
         <v>6.5203497683280001E-2</v>
       </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7">
+        <v>0.31295657565782797</v>
+      </c>
+      <c r="AG7">
+        <v>0.67196816603171405</v>
+      </c>
+      <c r="AH7">
+        <v>0.36023190552137702</v>
+      </c>
+      <c r="AI7">
+        <v>5.5838680977223602E-2</v>
+      </c>
+      <c r="AK7">
+        <v>0.70983229605288301</v>
+      </c>
+      <c r="AL7">
+        <v>0.85338200838313805</v>
+      </c>
+      <c r="AM7">
+        <v>11.362383748423101</v>
+      </c>
+      <c r="AN7">
+        <v>3.3087994899480901</v>
+      </c>
+      <c r="AP7">
+        <v>0.710215309974911</v>
+      </c>
+      <c r="AQ7">
+        <v>0.86092588364047296</v>
+      </c>
+      <c r="AR7">
+        <v>11.614865519430101</v>
+      </c>
+      <c r="AS7">
+        <v>3.1013028284621398</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8">
         <v>0.346964064436183</v>
@@ -3585,8 +8971,45 @@
       <c r="AD8">
         <v>4.5774924350671098E-2</v>
       </c>
+      <c r="AE8" s="2"/>
+      <c r="AF8">
+        <v>0.34574941664735098</v>
+      </c>
+      <c r="AG8">
+        <v>0.69843372022733896</v>
+      </c>
+      <c r="AH8">
+        <v>0.306514898668172</v>
+      </c>
+      <c r="AI8">
+        <v>5.6591359882603699E-2</v>
+      </c>
+      <c r="AK8">
+        <v>0.91166428007085698</v>
+      </c>
+      <c r="AL8">
+        <v>0.95430676547113003</v>
+      </c>
+      <c r="AM8">
+        <v>4.4614771269367299</v>
+      </c>
+      <c r="AN8">
+        <v>1.67431900826262</v>
+      </c>
+      <c r="AP8">
+        <v>0.91586659200224296</v>
+      </c>
+      <c r="AQ8">
+        <v>0.96119772130623504</v>
+      </c>
+      <c r="AR8">
+        <v>4.28411369505615</v>
+      </c>
+      <c r="AS8">
+        <v>1.62579649712876</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9">
         <v>0.35272277227722798</v>
@@ -3665,8 +9088,45 @@
       <c r="AD9">
         <v>5.3501002800481201E-2</v>
       </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9">
+        <v>0.35268436256707503</v>
+      </c>
+      <c r="AG9">
+        <v>0.692651407501785</v>
+      </c>
+      <c r="AH9">
+        <v>0.42394323368952602</v>
+      </c>
+      <c r="AI9">
+        <v>5.9678122910917598E-2</v>
+      </c>
+      <c r="AK9">
+        <v>0.19789503478624601</v>
+      </c>
+      <c r="AL9">
+        <v>0.29741158248376298</v>
+      </c>
+      <c r="AM9">
+        <v>9.2816384290876908</v>
+      </c>
+      <c r="AN9">
+        <v>7.7232000841434596</v>
+      </c>
+      <c r="AP9">
+        <v>0.190234380044977</v>
+      </c>
+      <c r="AQ9">
+        <v>0.29163008434686899</v>
+      </c>
+      <c r="AR9">
+        <v>9.3193178866713904</v>
+      </c>
+      <c r="AS9">
+        <v>7.5115575235614402</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10">
         <v>0.341890315052509</v>
@@ -3745,8 +9205,45 @@
       <c r="AD10">
         <v>6.9301112224746997E-2</v>
       </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10">
+        <v>0.34161275751536602</v>
+      </c>
+      <c r="AG10">
+        <v>0.64470991518096599</v>
+      </c>
+      <c r="AH10">
+        <v>0.48112032719494202</v>
+      </c>
+      <c r="AI10">
+        <v>5.0764204830528903E-2</v>
+      </c>
+      <c r="AK10">
+        <v>0.34944153971237102</v>
+      </c>
+      <c r="AL10">
+        <v>0.25874803949550201</v>
+      </c>
+      <c r="AM10">
+        <v>10.9844804908253</v>
+      </c>
+      <c r="AN10">
+        <v>4.2785718250671101</v>
+      </c>
+      <c r="AP10">
+        <v>0.34304102656406499</v>
+      </c>
+      <c r="AQ10">
+        <v>0.25497211422902899</v>
+      </c>
+      <c r="AR10">
+        <v>10.4707041216852</v>
+      </c>
+      <c r="AS10">
+        <v>3.96667275158579</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11">
         <v>0.290091930541369</v>
@@ -3825,8 +9322,45 @@
       <c r="AD11">
         <v>5.7372769289829602E-2</v>
       </c>
+      <c r="AE11" s="2"/>
+      <c r="AF11">
+        <v>0.28990963179819301</v>
+      </c>
+      <c r="AG11">
+        <v>0.62289009704392895</v>
+      </c>
+      <c r="AH11">
+        <v>0.485065604328415</v>
+      </c>
+      <c r="AI11">
+        <v>6.7829322510667103E-2</v>
+      </c>
+      <c r="AK11">
+        <v>0.82834427042741299</v>
+      </c>
+      <c r="AL11">
+        <v>0.14485141145869801</v>
+      </c>
+      <c r="AM11">
+        <v>5.1564937202313299</v>
+      </c>
+      <c r="AN11">
+        <v>3.4836790230402199</v>
+      </c>
+      <c r="AP11">
+        <v>0.83385594123355</v>
+      </c>
+      <c r="AQ11">
+        <v>0.151660935429694</v>
+      </c>
+      <c r="AR11">
+        <v>4.8930071821278904</v>
+      </c>
+      <c r="AS11">
+        <v>3.49659375367975</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12">
         <v>0.29184549356223199</v>
@@ -3905,8 +9439,45 @@
       <c r="AD12">
         <v>7.3238543935720102E-2</v>
       </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12">
+        <v>0.29101601768857999</v>
+      </c>
+      <c r="AG12">
+        <v>0.63662822331286595</v>
+      </c>
+      <c r="AH12">
+        <v>0.503027947283332</v>
+      </c>
+      <c r="AI12">
+        <v>5.73479207487795E-2</v>
+      </c>
+      <c r="AK12">
+        <v>0.28090609070517403</v>
+      </c>
+      <c r="AL12">
+        <v>0.29417991261515403</v>
+      </c>
+      <c r="AM12">
+        <v>7.6976568453055796</v>
+      </c>
+      <c r="AN12">
+        <v>0.55453775426575302</v>
+      </c>
+      <c r="AP12">
+        <v>0.270601652930964</v>
+      </c>
+      <c r="AQ12">
+        <v>0.29091578468465001</v>
+      </c>
+      <c r="AR12">
+        <v>7.4078890678319302</v>
+      </c>
+      <c r="AS12">
+        <v>0.51666302712922596</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13">
         <v>0.26524953789279099</v>
@@ -3985,9 +9556,116 @@
       <c r="AD13">
         <v>5.4608799195001403E-2</v>
       </c>
+      <c r="AE13" s="2"/>
+      <c r="AF13">
+        <v>0.26596068412849</v>
+      </c>
+      <c r="AG13">
+        <v>0.56232728826024503</v>
+      </c>
+      <c r="AH13">
+        <v>0.39228831347941001</v>
+      </c>
+      <c r="AI13">
+        <v>6.3593107101662896E-2</v>
+      </c>
+      <c r="AK13">
+        <v>0.17587352548851601</v>
+      </c>
+      <c r="AL13">
+        <v>0.749950615408429</v>
+      </c>
+      <c r="AM13">
+        <v>2.7336957082292499</v>
+      </c>
+      <c r="AN13">
+        <v>3.8260480999402602</v>
+      </c>
+      <c r="AP13">
+        <v>0.17913781934364301</v>
+      </c>
+      <c r="AQ13">
+        <v>0.75415579323656901</v>
+      </c>
+      <c r="AR13">
+        <v>2.7155835547233198</v>
+      </c>
+      <c r="AS13">
+        <v>3.87429028801404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="R15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="17" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="18" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="19" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="20" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="21" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="22" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22">
+        <v>18254</v>
+      </c>
+    </row>
+    <row r="23" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23">
+        <v>17971</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AE2:AE13"/>
     <mergeCell ref="Z2:Z13"/>
     <mergeCell ref="A1:A13"/>
     <mergeCell ref="F1:F13"/>
@@ -3995,6 +9673,7 @@
     <mergeCell ref="P1:P13"/>
     <mergeCell ref="U1:U13"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -4005,13 +9684,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4956391B-8855-4249-9602-5D9CC68E57ED}">
   <dimension ref="B3:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4033,7 +9712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.21934945788156801</v>
       </c>
@@ -4055,7 +9734,7 @@
         <v>2.5241624927639039E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.211775878442545</v>
       </c>
@@ -4077,7 +9756,7 @@
         <v>2.7362008297882934E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0.195688225538972</v>
       </c>
@@ -4099,7 +9778,7 @@
         <v>4.2690618067939057E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.19480519480519501</v>
       </c>
@@ -4121,7 +9800,7 @@
         <v>4.6966475402673957E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.23588342440801499</v>
       </c>
@@ -4143,7 +9822,7 @@
         <v>4.4784043621752923E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0.295728368017525</v>
       </c>
@@ -4165,7 +9844,7 @@
         <v>3.9710279618555E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.319148936170213</v>
       </c>
@@ -4187,7 +9866,7 @@
         <v>3.6954096023308014E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.33144796380090502</v>
       </c>
@@ -4209,7 +9888,7 @@
         <v>3.685745686589903E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.31670281995661598</v>
       </c>
@@ -4231,7 +9910,7 @@
         <v>2.9285468634995038E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0.27793974732750198</v>
       </c>
@@ -4253,7 +9932,7 @@
         <v>2.9531453752417058E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0.27263479145473002</v>
       </c>
@@ -4275,7 +9954,7 @@
         <v>2.0934311960486007E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0.245166959578207</v>
       </c>
@@ -4300,5 +9979,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Param.xlsx
+++ b/Param.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Programming\PilotStudy01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD72660-F994-4584-B571-586E2CB2EB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B129ABDB-3C3D-4AC3-8C5D-7DF83352BFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DEEAB0B-D86B-4A93-9B99-F30BBFEF50BC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{9DEEAB0B-D86B-4A93-9B99-F30BBFEF50BC}"/>
   </bookViews>
   <sheets>
     <sheet name="OptParameter" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <t>Trial 8</t>
   </si>
   <si>
-    <t>SSE</t>
+    <t>Average SSE</t>
   </si>
 </sst>
 </file>
@@ -141,10 +141,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7138,16 +7138,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18596</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>18596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323396</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>8617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7174,16 +7174,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352879</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>24946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>174625</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>48079</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12246</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7211,13 +7211,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:colOff>22904</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:colOff>327704</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -7612,7 +7612,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Boundaries same as Trial 2, initial parameters taken from trial 2, SSE=SSE*100</a:t>
+            <a:t>Boundaries same as Trial 2, initial parameters taken from trial 2, SSE=SSE*100, with set.seed()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7626,7 +7626,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Trial 7: Boundaries same as Trial 2, initial parameters taken from trial 6 , SSE=SSE</a:t>
+            <a:t>Trial 7: Boundaries same as Trial 2, initial parameters taken from trial 6 , SSE=SSE, with set.seed()</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7664,7 +7664,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Boundaries same as Trial 2, initial parameters taken from trial 7, SSE=SSE</a:t>
+            <a:t>Boundaries same as Trial 2, initial parameters taken from trial 7, SSE=SSE, with set.seed()</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="2800"/>
         </a:p>
@@ -8057,14 +8057,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B02CAA4-988E-4874-AD3F-97CDE6B472FA}">
   <dimension ref="A1:AS23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="R13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -8079,7 +8079,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1"/>
@@ -8092,7 +8092,7 @@
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -8107,7 +8107,7 @@
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -8122,7 +8122,7 @@
       <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="V1" s="1" t="s">
@@ -8186,8 +8186,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
       <c r="B2">
         <v>0.24168126094570899</v>
       </c>
@@ -8200,7 +8200,7 @@
       <c r="E2">
         <v>4.58728781463245E-2</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3"/>
       <c r="G2">
         <v>0.22460971086774301</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="J2">
         <v>0.147724340539197</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="3"/>
       <c r="L2">
         <v>0.241808332352828</v>
       </c>
@@ -8226,7 +8226,7 @@
       <c r="O2">
         <v>4.5144438216653399E-2</v>
       </c>
-      <c r="P2" s="2"/>
+      <c r="P2" s="3"/>
       <c r="Q2">
         <v>0.24187804398988</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="T2">
         <v>4.3313597423349601E-2</v>
       </c>
-      <c r="U2" s="2"/>
+      <c r="U2" s="3"/>
       <c r="V2">
         <v>0.24211515854416699</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="Y2">
         <v>4.1817064164349001E-2</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA2">
@@ -8267,7 +8267,7 @@
       <c r="AD2">
         <v>3.8313860373383801E-2</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AF2">
@@ -8307,8 +8307,8 @@
         <v>1.6592711749359501</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
       <c r="B3">
         <v>0.22709163346613501</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="E3">
         <v>5.3681764227666198E-2</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
       <c r="G3">
         <v>0.13798841778962201</v>
       </c>
@@ -8334,7 +8334,7 @@
       <c r="J3">
         <v>0.17478468944569001</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="3"/>
       <c r="L3">
         <v>0.22691776439675901</v>
       </c>
@@ -8347,7 +8347,7 @@
       <c r="O3">
         <v>5.3798938545086203E-2</v>
       </c>
-      <c r="P3" s="2"/>
+      <c r="P3" s="3"/>
       <c r="Q3">
         <v>0.226766557986044</v>
       </c>
@@ -8360,7 +8360,7 @@
       <c r="T3">
         <v>4.8952602063983698E-2</v>
       </c>
-      <c r="U3" s="2"/>
+      <c r="U3" s="3"/>
       <c r="V3">
         <v>0.226941000730352</v>
       </c>
@@ -8373,7 +8373,7 @@
       <c r="Y3">
         <v>5.5702439037050001E-2</v>
       </c>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="3"/>
       <c r="AA3">
         <v>0.22674236078989499</v>
       </c>
@@ -8386,7 +8386,7 @@
       <c r="AD3">
         <v>5.7156968140952301E-2</v>
       </c>
-      <c r="AE3" s="2"/>
+      <c r="AE3" s="3"/>
       <c r="AF3">
         <v>0.226633310739312</v>
       </c>
@@ -8424,8 +8424,8 @@
         <v>9.1598817121336094</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
       <c r="B4">
         <v>0.20782608695652199</v>
       </c>
@@ -8438,7 +8438,7 @@
       <c r="E4">
         <v>3.4197273610095398E-2</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4">
         <v>0.24583798449913299</v>
       </c>
@@ -8451,7 +8451,7 @@
       <c r="J4">
         <v>0.33809963825834199</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="3"/>
       <c r="L4">
         <v>0.20712201416600601</v>
       </c>
@@ -8464,7 +8464,7 @@
       <c r="O4">
         <v>3.3373463576837799E-2</v>
       </c>
-      <c r="P4" s="2"/>
+      <c r="P4" s="3"/>
       <c r="Q4">
         <v>0.20776234256350001</v>
       </c>
@@ -8477,7 +8477,7 @@
       <c r="T4">
         <v>2.9541519751946001E-2</v>
       </c>
-      <c r="U4" s="2"/>
+      <c r="U4" s="3"/>
       <c r="V4">
         <v>0.20732876149113499</v>
       </c>
@@ -8490,7 +8490,7 @@
       <c r="Y4">
         <v>3.4435029486522398E-2</v>
       </c>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="3"/>
       <c r="AA4">
         <v>0.20758385427193299</v>
       </c>
@@ -8503,7 +8503,7 @@
       <c r="AD4">
         <v>3.57241168089674E-2</v>
       </c>
-      <c r="AE4" s="2"/>
+      <c r="AE4" s="3"/>
       <c r="AF4">
         <v>0.20726776297070601</v>
       </c>
@@ -8541,8 +8541,8 @@
         <v>8.3539123545060097</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
       <c r="B5">
         <v>0.20768526989936001</v>
       </c>
@@ -8555,7 +8555,7 @@
       <c r="E5">
         <v>4.2982326668253398E-2</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5">
         <v>0.31827927037759102</v>
       </c>
@@ -8568,7 +8568,7 @@
       <c r="J5">
         <v>4.9748379520451497E-2</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="3"/>
       <c r="L5">
         <v>0.20833103303609601</v>
       </c>
@@ -8581,7 +8581,7 @@
       <c r="O5">
         <v>4.3097885568395097E-2</v>
       </c>
-      <c r="P5" s="2"/>
+      <c r="P5" s="3"/>
       <c r="Q5">
         <v>0.20755920101825701</v>
       </c>
@@ -8594,7 +8594,7 @@
       <c r="T5">
         <v>3.96814873363514E-2</v>
       </c>
-      <c r="U5" s="2"/>
+      <c r="U5" s="3"/>
       <c r="V5">
         <v>0.208680495282701</v>
       </c>
@@ -8607,7 +8607,7 @@
       <c r="Y5">
         <v>4.2975862028923201E-2</v>
       </c>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="3"/>
       <c r="AA5">
         <v>0.208736427859607</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="AD5">
         <v>4.1462279052035499E-2</v>
       </c>
-      <c r="AE5" s="2"/>
+      <c r="AE5" s="3"/>
       <c r="AF5">
         <v>0.20795910541496601</v>
       </c>
@@ -8658,8 +8658,8 @@
         <v>7.9400320262143698</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
       <c r="B6">
         <v>0.26035502958579898</v>
       </c>
@@ -8672,7 +8672,7 @@
       <c r="E6">
         <v>5.9210456676542803E-2</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6">
         <v>0.34572724115824099</v>
       </c>
@@ -8685,7 +8685,7 @@
       <c r="J6">
         <v>6.7442338786529193E-2</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="3"/>
       <c r="L6">
         <v>0.26053707067141102</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="O6">
         <v>5.7043066991399903E-2</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="3"/>
       <c r="Q6">
         <v>0.260201420020228</v>
       </c>
@@ -8711,7 +8711,7 @@
       <c r="T6">
         <v>5.77466986222624E-2</v>
       </c>
-      <c r="U6" s="2"/>
+      <c r="U6" s="3"/>
       <c r="V6">
         <v>0.26020500497494498</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="Y6">
         <v>5.7207045024467801E-2</v>
       </c>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="3"/>
       <c r="AA6">
         <v>0.26000886576083598</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="AD6">
         <v>5.54027669429508E-2</v>
       </c>
-      <c r="AE6" s="2"/>
+      <c r="AE6" s="3"/>
       <c r="AF6">
         <v>0.26115704652405403</v>
       </c>
@@ -8775,8 +8775,8 @@
         <v>0.48684214241310297</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
       <c r="B7">
         <v>0.31353919239904998</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="E7">
         <v>6.3839423232491005E-2</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7">
         <v>0.47353407369977002</v>
       </c>
@@ -8802,7 +8802,7 @@
       <c r="J7">
         <v>7.8393512040439803E-2</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="3"/>
       <c r="L7">
         <v>0.31398349804940701</v>
       </c>
@@ -8815,7 +8815,7 @@
       <c r="O7">
         <v>5.8993534158257602E-2</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="3"/>
       <c r="Q7">
         <v>0.31317259564176197</v>
       </c>
@@ -8828,7 +8828,7 @@
       <c r="T7">
         <v>6.4867130027804407E-2</v>
       </c>
-      <c r="U7" s="2"/>
+      <c r="U7" s="3"/>
       <c r="V7">
         <v>0.31411905827416597</v>
       </c>
@@ -8841,7 +8841,7 @@
       <c r="Y7">
         <v>6.1642215290704301E-2</v>
       </c>
-      <c r="Z7" s="2"/>
+      <c r="Z7" s="3"/>
       <c r="AA7">
         <v>0.31434605722811099</v>
       </c>
@@ -8854,7 +8854,7 @@
       <c r="AD7">
         <v>6.5203497683280001E-2</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" s="3"/>
       <c r="AF7">
         <v>0.31295657565782797</v>
       </c>
@@ -8892,8 +8892,8 @@
         <v>3.1013028284621398</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
       <c r="B8">
         <v>0.346964064436183</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="E8">
         <v>5.0543007648536503E-2</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8">
         <v>0.38248407898387299</v>
       </c>
@@ -8919,7 +8919,7 @@
       <c r="J8">
         <v>0.40583610261701902</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="3"/>
       <c r="L8">
         <v>0.34654572922925098</v>
       </c>
@@ -8932,7 +8932,7 @@
       <c r="O8">
         <v>4.5189393208286799E-2</v>
       </c>
-      <c r="P8" s="2"/>
+      <c r="P8" s="3"/>
       <c r="Q8">
         <v>0.34636150191276999</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="T8">
         <v>4.3346256543820197E-2</v>
       </c>
-      <c r="U8" s="2"/>
+      <c r="U8" s="3"/>
       <c r="V8">
         <v>0.34666295707452499</v>
       </c>
@@ -8958,7 +8958,7 @@
       <c r="Y8">
         <v>4.31636298572688E-2</v>
       </c>
-      <c r="Z8" s="2"/>
+      <c r="Z8" s="3"/>
       <c r="AA8">
         <v>0.34656863896517798</v>
       </c>
@@ -8971,7 +8971,7 @@
       <c r="AD8">
         <v>4.5774924350671098E-2</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" s="3"/>
       <c r="AF8">
         <v>0.34574941664735098</v>
       </c>
@@ -9009,8 +9009,8 @@
         <v>1.62579649712876</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
       <c r="B9">
         <v>0.35272277227722798</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="E9">
         <v>6.3780910910447394E-2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="3"/>
       <c r="G9">
         <v>0.43289474010478601</v>
       </c>
@@ -9036,7 +9036,7 @@
       <c r="J9">
         <v>5.9821747001244201E-2</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="3"/>
       <c r="L9">
         <v>0.35239219491990798</v>
       </c>
@@ -9049,7 +9049,7 @@
       <c r="O9">
         <v>5.5009068431846199E-2</v>
       </c>
-      <c r="P9" s="2"/>
+      <c r="P9" s="3"/>
       <c r="Q9">
         <v>0.35240989977772702</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="T9">
         <v>5.7908216543288503E-2</v>
       </c>
-      <c r="U9" s="2"/>
+      <c r="U9" s="3"/>
       <c r="V9">
         <v>0.35272185600038802</v>
       </c>
@@ -9075,7 +9075,7 @@
       <c r="Y9">
         <v>5.5331017927740402E-2</v>
       </c>
-      <c r="Z9" s="2"/>
+      <c r="Z9" s="3"/>
       <c r="AA9">
         <v>0.35263588505413102</v>
       </c>
@@ -9088,7 +9088,7 @@
       <c r="AD9">
         <v>5.3501002800481201E-2</v>
       </c>
-      <c r="AE9" s="2"/>
+      <c r="AE9" s="3"/>
       <c r="AF9">
         <v>0.35268436256707503</v>
       </c>
@@ -9126,8 +9126,8 @@
         <v>7.5115575235614402</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
       <c r="B10">
         <v>0.341890315052509</v>
       </c>
@@ -9140,7 +9140,7 @@
       <c r="E10">
         <v>6.7854780313007207E-2</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
       <c r="G10">
         <v>0.51864768197470401</v>
       </c>
@@ -9153,7 +9153,7 @@
       <c r="J10">
         <v>0.26813207203143302</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="3"/>
       <c r="L10">
         <v>0.34131418680596698</v>
       </c>
@@ -9166,7 +9166,7 @@
       <c r="O10">
         <v>7.0435450533980898E-2</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="3"/>
       <c r="Q10">
         <v>0.34198521998519799</v>
       </c>
@@ -9179,7 +9179,7 @@
       <c r="T10">
         <v>6.7144048921429694E-2</v>
       </c>
-      <c r="U10" s="2"/>
+      <c r="U10" s="3"/>
       <c r="V10">
         <v>0.341276274701731</v>
       </c>
@@ -9192,7 +9192,7 @@
       <c r="Y10">
         <v>7.1217464244222706E-2</v>
       </c>
-      <c r="Z10" s="2"/>
+      <c r="Z10" s="3"/>
       <c r="AA10">
         <v>0.34113774712086398</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="AD10">
         <v>6.9301112224746997E-2</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" s="3"/>
       <c r="AF10">
         <v>0.34161275751536602</v>
       </c>
@@ -9243,8 +9243,8 @@
         <v>3.96667275158579</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
       <c r="B11">
         <v>0.290091930541369</v>
       </c>
@@ -9257,7 +9257,7 @@
       <c r="E11">
         <v>6.59179939282937E-2</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11">
         <v>0.34932938646692901</v>
       </c>
@@ -9270,7 +9270,7 @@
       <c r="J11">
         <v>0.34339754905035502</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="3"/>
       <c r="L11">
         <v>0.289422063121963</v>
       </c>
@@ -9283,7 +9283,7 @@
       <c r="O11">
         <v>6.3620235338260694E-2</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="3"/>
       <c r="Q11">
         <v>0.29019541128057003</v>
       </c>
@@ -9296,7 +9296,7 @@
       <c r="T11">
         <v>6.21167626564256E-2</v>
       </c>
-      <c r="U11" s="2"/>
+      <c r="U11" s="3"/>
       <c r="V11">
         <v>0.28957466733279602</v>
       </c>
@@ -9309,7 +9309,7 @@
       <c r="Y11">
         <v>6.0062245346010699E-2</v>
       </c>
-      <c r="Z11" s="2"/>
+      <c r="Z11" s="3"/>
       <c r="AA11">
         <v>0.28964453815616997</v>
       </c>
@@ -9322,7 +9322,7 @@
       <c r="AD11">
         <v>5.7372769289829602E-2</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" s="3"/>
       <c r="AF11">
         <v>0.28990963179819301</v>
       </c>
@@ -9360,8 +9360,8 @@
         <v>3.49659375367975</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
       <c r="B12">
         <v>0.29184549356223199</v>
       </c>
@@ -9374,7 +9374,7 @@
       <c r="E12">
         <v>7.2744489854828703E-2</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="3"/>
       <c r="G12">
         <v>0.55256284244014398</v>
       </c>
@@ -9387,7 +9387,7 @@
       <c r="J12">
         <v>0.35756296673135002</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="3"/>
       <c r="L12">
         <v>0.29161852976810099</v>
       </c>
@@ -9400,7 +9400,7 @@
       <c r="O12">
         <v>7.4457648481047897E-2</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="P12" s="3"/>
       <c r="Q12">
         <v>0.291853812607279</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="T12">
         <v>6.6928158100210897E-2</v>
       </c>
-      <c r="U12" s="2"/>
+      <c r="U12" s="3"/>
       <c r="V12">
         <v>0.29165072111464702</v>
       </c>
@@ -9426,7 +9426,7 @@
       <c r="Y12">
         <v>7.4950109364725598E-2</v>
       </c>
-      <c r="Z12" s="2"/>
+      <c r="Z12" s="3"/>
       <c r="AA12">
         <v>0.29148187368460499</v>
       </c>
@@ -9439,7 +9439,7 @@
       <c r="AD12">
         <v>7.3238543935720102E-2</v>
       </c>
-      <c r="AE12" s="2"/>
+      <c r="AE12" s="3"/>
       <c r="AF12">
         <v>0.29101601768857999</v>
       </c>
@@ -9477,8 +9477,8 @@
         <v>0.51666302712922596</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
       <c r="B13">
         <v>0.26524953789279099</v>
       </c>
@@ -9491,7 +9491,7 @@
       <c r="E13">
         <v>5.4817605022355401E-2</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="3"/>
       <c r="G13">
         <v>0.44311733786060598</v>
       </c>
@@ -9504,7 +9504,7 @@
       <c r="J13">
         <v>0.16929502847644001</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="3"/>
       <c r="L13">
         <v>0.26478682400579201</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="O13">
         <v>5.2247591325617002E-2</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="3"/>
       <c r="Q13">
         <v>0.26512019135128001</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="T13">
         <v>5.0925406657641302E-2</v>
       </c>
-      <c r="U13" s="2"/>
+      <c r="U13" s="3"/>
       <c r="V13">
         <v>0.26498633548613598</v>
       </c>
@@ -9543,7 +9543,7 @@
       <c r="Y13">
         <v>5.5505373892016097E-2</v>
       </c>
-      <c r="Z13" s="2"/>
+      <c r="Z13" s="3"/>
       <c r="AA13">
         <v>0.26487964657509599</v>
       </c>
@@ -9556,7 +9556,7 @@
       <c r="AD13">
         <v>5.4608799195001403E-2</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" s="3"/>
       <c r="AF13">
         <v>0.26596068412849</v>
       </c>
@@ -9594,12 +9594,12 @@
         <v>3.87429028801404</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="R15" s="1" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="S15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
       <c r="R16" t="s">
         <v>4</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="17" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R17" t="s">
         <v>5</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="18" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R18" t="s">
         <v>6</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="19" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>7</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="20" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R20" t="s">
         <v>8</v>
       </c>
@@ -9639,15 +9639,15 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="21" spans="18:19" x14ac:dyDescent="0.25">
-      <c r="R21" s="3" t="s">
+    <row r="21" spans="18:19" x14ac:dyDescent="0.35">
+      <c r="R21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="2">
         <v>1045</v>
       </c>
     </row>
-    <row r="22" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R22" t="s">
         <v>13</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>18254</v>
       </c>
     </row>
-    <row r="23" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="18:19" x14ac:dyDescent="0.35">
       <c r="R23" t="s">
         <v>14</v>
       </c>
@@ -9688,9 +9688,9 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.21934945788156801</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>2.5241624927639039E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.211775878442545</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>2.7362008297882934E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>0.195688225538972</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>4.2690618067939057E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.19480519480519501</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>4.6966475402673957E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.23588342440801499</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>4.4784043621752923E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>0.295728368017525</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>3.9710279618555E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>0.319148936170213</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>3.6954096023308014E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.33144796380090502</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>3.685745686589903E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.31670281995661598</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>2.9285468634995038E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>0.27793974732750198</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>2.9531453752417058E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>0.27263479145473002</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>2.0934311960486007E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>0.245166959578207</v>
       </c>
